--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_5/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.199</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.726</v>
+        <v>17.39</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.422</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.355</v>
+        <v>13.164</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.374</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.693</v>
+        <v>8.222</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.64933107049324</v>
+        <v>5.191111592025699</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.23308007005414</v>
+        <v>10.56995184822711</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.04993752431519</v>
+        <v>19.04484284188437</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8.096657425408925</v>
+        <v>-3.548410503027633</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.62934924503572</v>
+        <v>11.32792316470154</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.29877379237084</v>
+        <v>12.60622403460494</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>12.3253986948941</v>
+        <v>-0.2754772339601956</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.30568732947201</v>
+        <v>23.41730349588907</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.53887628037562</v>
+        <v>25.38812273663778</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.14372465968446</v>
+        <v>14.90035260562932</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>34.65358268024058</v>
+        <v>21.13090692163082</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.78562797074954</v>
+        <v>22.18412555248583</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.54669921519693</v>
+        <v>6.158985286863647</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.96845537587793</v>
+        <v>7.976590803489877</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.21424467757186</v>
+        <v>17.67562712370395</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.25599968621398</v>
+        <v>11.00113329620181</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.98029541026593</v>
+        <v>22.94823360579844</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.87183516541105</v>
+        <v>29.3100840092325</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.13587983446149</v>
+        <v>0.9560318717109126</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.70254335288867</v>
+        <v>10.54833906859862</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.49769696859356</v>
+        <v>15.07122406125638</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>14.53459720514568</v>
+        <v>1.323233300335097</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>30.59955645993469</v>
+        <v>23.27082144462694</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10.64963102890286</v>
+        <v>6.397201464210362</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.23338820898212</v>
+        <v>16.52069153789933</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.0502463130553</v>
+        <v>20.78511179439165</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.096968626682543</v>
+        <v>-6.124453775812519</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.62966993775721</v>
+        <v>23.98722938592773</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.29909548696472</v>
+        <v>24.38968256711471</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>12.32571322725234</v>
+        <v>-3.381101342508138</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.30601166238687</v>
+        <v>37.83172535431169</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.53920148908209</v>
+        <v>36.63001435285128</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>30.1440528447183</v>
+        <v>38.41363052884657</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>34.6539120131547</v>
+        <v>42.52962248227374</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36.7859581112922</v>
+        <v>41.81327916167943</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19.54701938744263</v>
+        <v>10.7575529334676</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.96878383925534</v>
+        <v>32.63999679063745</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35.21457346559061</v>
+        <v>37.39458301980756</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.25629901612915</v>
+        <v>14.33288299131201</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.9806029059305</v>
+        <v>31.83157778987084</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.87214340025164</v>
+        <v>35.3516068318848</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.1361902406874</v>
+        <v>1.726592154762706</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.70286320677498</v>
+        <v>28.54359235417292</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.49801790627146</v>
+        <v>33.95869380528266</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>14.53491105671418</v>
+        <v>3.940567062017131</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>30.59988009347793</v>
+        <v>46.43234217643235</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>10.64972885033084</v>
+        <v>1.58891007262671</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.23348478313401</v>
+        <v>12.39626121216438</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.05034175707251</v>
+        <v>19.49486181289115</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>8.097070825576154</v>
+        <v>-6.179863506251102</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.62977063248441</v>
+        <v>21.79604358330503</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26.29919518564912</v>
+        <v>25.44838886498579</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>12.32581547039536</v>
+        <v>-2.643478191756422</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.30611211852575</v>
+        <v>37.2056750591232</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.53930071096931</v>
+        <v>40.4765545483538</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>30.14415410775701</v>
+        <v>39.82460328260274</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>34.6540122419248</v>
+        <v>41.97120131564979</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>36.78605786123498</v>
+        <v>45.6682943822257</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>19.54712114839275</v>
+        <v>3.288708127932985</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>31.96888453850425</v>
+        <v>27.37944763609483</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>35.21467309476077</v>
+        <v>34.03588028340986</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.25639598638732</v>
+        <v>9.221996459124405</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.98069857252968</v>
+        <v>27.23670774568101</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.87223795177345</v>
+        <v>34.10816102494628</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>10.13629170877816</v>
+        <v>0.3758052901670865</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.70296312951688</v>
+        <v>24.50628837949214</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.49811683153277</v>
+        <v>34.25229485165864</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>14.53501255478087</v>
+        <v>3.200418606288146</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.59997976237516</v>
+        <v>44.23999827655681</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>10.6495874164635</v>
+        <v>-1.315109725603484</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.23334593780567</v>
+        <v>8.520319397250127</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>27.05020406373236</v>
+        <v>19.14655534844204</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>8.096919707023169</v>
+        <v>-5.544371961663863</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>22.62962283112476</v>
+        <v>20.60111662611647</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>26.29904818805868</v>
+        <v>27.32501601568027</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.32566604627528</v>
+        <v>-4.235722531157869</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.305966547015</v>
+        <v>33.70043511274594</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.53915642588408</v>
+        <v>39.95226855730701</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30.14400804040916</v>
+        <v>31.1273288555735</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.65386839508255</v>
+        <v>32.52743561425536</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.78591440570167</v>
+        <v>40.52757784611598</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>19.54697356536209</v>
+        <v>1.11237947589084</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31.96873916724154</v>
+        <v>22.54814420362008</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>35.21452885255012</v>
+        <v>35.21090474782233</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>13.25625650368402</v>
+        <v>4.277723399350414</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.9805617931246</v>
+        <v>21.85691582552423</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.87210232548819</v>
+        <v>31.46909465748082</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10.13614232007253</v>
+        <v>-1.272479157611365</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24.70281712707717</v>
+        <v>20.30864336222519</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.49797166246017</v>
+        <v>32.47397546996829</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.53486489017297</v>
+        <v>-1.387110089647187</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.59983604076164</v>
+        <v>36.49438116563881</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.94232739674803</v>
+        <v>31.33069376602757</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>32.58603130348494</v>
+        <v>20.01897436891404</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>37.23147139538573</v>
+        <v>33.60692556360164</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.39687591988628</v>
+        <v>35.15464811863578</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>21.99663301213603</v>
+        <v>7.455196980311435</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34.66035873991609</v>
+        <v>21.10143173705661</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>37.92041405536273</v>
+        <v>27.70020602631971</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.56860338315704</v>
+        <v>12.17793766828058</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>34.48539119655219</v>
+        <v>25.22658757758069</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>38.45312355737437</v>
+        <v>35.30300893017017</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>19.18507102870062</v>
+        <v>-2.944874500053281</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>34.0334397170225</v>
+        <v>12.71563854156515</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>37.82584683316567</v>
+        <v>18.0359868341202</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.59199729839514</v>
+        <v>-0.6423607314277646</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>39.87517161510432</v>
+        <v>29.34455659794441</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>44.2980247058169</v>
+        <v>42.10889920910717</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>42.25663604466524</v>
+        <v>30.83956022799203</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>46.91926781569232</v>
+        <v>45.78037674841065</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>49.09436199696146</v>
+        <v>50.49197710707109</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>31.43550827423897</v>
+        <v>5.192798906372765</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>44.23408105857703</v>
+        <v>27.83704671375302</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>47.52258774783215</v>
+        <v>38.34036810666189</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.94265200422798</v>
+        <v>53.42301632249082</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>32.58635867241267</v>
+        <v>49.49927836020385</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>37.23179993180234</v>
+        <v>58.07267208888872</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>39.3972052848093</v>
+        <v>58.90491820043079</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>21.99695252757864</v>
+        <v>18.49835536968732</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>34.66068657487049</v>
+        <v>54.59915002670974</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>37.92074225994938</v>
+        <v>57.69030132076075</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.56891232480736</v>
+        <v>21.08135473439655</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>34.48570845712524</v>
+        <v>40.56765841478981</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>38.45344150005405</v>
+        <v>46.36099740502264</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>19.18539135596983</v>
+        <v>4.237022804811296</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.03376967869131</v>
+        <v>40.28565825689211</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>37.82617781915333</v>
+        <v>44.04684152725205</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>23.5923211365806</v>
+        <v>8.71216304757818</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>39.8755054133326</v>
+        <v>61.47844552412963</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>44.29835940451876</v>
+        <v>69.1571940600964</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>42.25697375095</v>
+        <v>72.85422440948946</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>46.91960669506464</v>
+        <v>80.87390206345165</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>49.09470166005154</v>
+        <v>83.64620664303771</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.435837953297</v>
+        <v>25.65698289176999</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>44.23441913742233</v>
+        <v>73.46966931802848</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>47.52292617481832</v>
+        <v>77.12333006962348</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.9427504485829</v>
+        <v>56.51437082812408</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>32.58645909341434</v>
+        <v>46.11326250693666</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>37.23189928217636</v>
+        <v>52.73164853103007</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>39.39730415080594</v>
+        <v>59.21779145935657</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>21.99705350304879</v>
+        <v>10.48710046696414</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>34.66078640395892</v>
+        <v>49.5320811775541</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>37.92084103616762</v>
+        <v>54.60527610706689</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>21.56900935027252</v>
+        <v>16.3414212178268</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.48580417434949</v>
+        <v>37.26727455342891</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>38.45353604258509</v>
+        <v>45.7553208380995</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>19.18549273858314</v>
+        <v>3.337067385010819</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.03386950150136</v>
+        <v>38.10652840382875</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>37.82627660494434</v>
+        <v>45.08725658086977</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>23.59242256296401</v>
+        <v>8.835156235044515</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>39.87560501366918</v>
+        <v>61.5021881567567</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>44.29845770915475</v>
+        <v>73.27606061948003</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>42.25707398039155</v>
+        <v>73.5614127009984</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>46.91970585512314</v>
+        <v>79.64866409593611</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>49.09480030744653</v>
+        <v>87.57067029001649</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.43593874624166</v>
+        <v>18.28302501068749</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>44.23451878872368</v>
+        <v>71.0380861257583</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>47.52302474089245</v>
+        <v>76.80678281224837</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.94260802716546</v>
+        <v>51.14291799230865</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.58631509541273</v>
+        <v>30.53141141934828</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37.2317575732995</v>
+        <v>38.58250727567032</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>39.39716284634648</v>
+        <v>48.29419730634428</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.99690782563097</v>
+        <v>5.037435789799424</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.66064308893349</v>
+        <v>42.28214742865652</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>37.92069884817493</v>
+        <v>51.82016549408289</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>21.56886719484944</v>
+        <v>13.10172455757277</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.48566473664904</v>
+        <v>34.40877426608871</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>38.45339784721907</v>
+        <v>46.4875563941852</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>19.18534098993887</v>
+        <v>3.447806784964634</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.03372117915675</v>
+        <v>35.11436170414382</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>37.82612916394972</v>
+        <v>46.01144307895692</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.59227247368441</v>
+        <v>5.201114896837488</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>39.87545888516945</v>
+        <v>55.340197770202</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>44.29831297795292</v>
+        <v>71.19649407347009</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>42.25692767818902</v>
+        <v>60.8252850637957</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>46.91956186421516</v>
+        <v>69.83981999533125</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>49.09465674046278</v>
+        <v>82.11660422549585</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.43579081389885</v>
+        <v>13.34988529382174</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.23437323564663</v>
+        <v>63.42664118324047</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>47.5228803386569</v>
+        <v>76.12296044593782</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>7.307927327928191</v>
+        <v>9.416462182698304</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.6932806224338</v>
+        <v>12.12666576013795</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>23.45142061808038</v>
+        <v>20.00992399505328</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.656579027784664</v>
+        <v>-1.023817549079318</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>18.9718583014036</v>
+        <v>9.936128941180677</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.58691987760716</v>
+        <v>11.6246502465111</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.854242320412817</v>
+        <v>4.186584599801684</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>24.5900151424557</v>
+        <v>22.04239739972949</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.76170507653492</v>
+        <v>25.44670135826673</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.38404088817608</v>
+        <v>13.91010302385039</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30.82417635442301</v>
+        <v>21.16388246701991</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>32.93574643799096</v>
+        <v>22.87265970548905</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.01093905574717</v>
+        <v>10.22550457538828</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.20759857836151</v>
+        <v>9.381779216972667</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>31.40985074788999</v>
+        <v>19.57769259613028</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.849758436966235</v>
+        <v>9.780978531655229</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>22.37943714076554</v>
+        <v>19.26995069635871</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.21173315241406</v>
+        <v>26.72438356708583</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>6.629315640950214</v>
+        <v>-1.109314794026879</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.98465805309558</v>
+        <v>4.30426322666694</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>24.72376785243871</v>
+        <v>10.01138719184593</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>10.99473277309004</v>
+        <v>-0.3732757649253173</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.81965593519841</v>
+        <v>15.42366547773106</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>7.308222379878048</v>
+        <v>11.99184600126996</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>19.69358373352596</v>
+        <v>19.40349468676352</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>23.45172438215235</v>
+        <v>23.43641702789623</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4.656885115678239</v>
+        <v>-2.010604023776658</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>18.97217373941351</v>
+        <v>23.80878124237518</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.5872363131602</v>
+        <v>25.23986384952568</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>8.854551713385263</v>
+        <v>2.948218845942456</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.59033419458662</v>
+        <v>38.04598318821758</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.76202500676419</v>
+        <v>38.92187443766449</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>26.38436375281175</v>
+        <v>38.98968458574317</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>30.82450035931183</v>
+        <v>44.66922289725179</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>32.93607124616354</v>
+        <v>44.82460862235764</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.0112540356586</v>
+        <v>17.438354940404</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.20792171071275</v>
+        <v>36.13108238624515</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>31.41017421218513</v>
+        <v>42.00190393209699</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>9.850052838844695</v>
+        <v>14.82807830584313</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>22.379739588556</v>
+        <v>29.83323109526467</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>26.2120363414835</v>
+        <v>34.80399335755647</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>6.629620912132252</v>
+        <v>1.53046151765475</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>20.98497263263022</v>
+        <v>23.75439908365428</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>24.72408351075575</v>
+        <v>30.98883226820818</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.99504146174107</v>
+        <v>4.39622720860249</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>26.81997426564175</v>
+        <v>40.39104299074629</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>7.308319707851357</v>
+        <v>5.451347843017665</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>19.69367983634045</v>
+        <v>13.60675956282524</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>23.45181937626586</v>
+        <v>20.44458692043532</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>4.656986776145052</v>
+        <v>-3.730105800486648</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>18.97227391895937</v>
+        <v>20.00292739850776</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.58733551350669</v>
+        <v>24.74071166506767</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>8.854653415684457</v>
+        <v>1.823363579584004</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>24.59043413989057</v>
+        <v>35.71763663716468</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.76212374085652</v>
+        <v>41.11241943708468</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26.3844645119875</v>
+        <v>38.33035489253081</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.82460010241101</v>
+        <v>42.19932432665835</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>32.93617051592812</v>
+        <v>46.74812431899617</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>16.01135526674197</v>
+        <v>8.402815087304397</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.20802190461121</v>
+        <v>29.33240792851837</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.41027335239096</v>
+        <v>37.29605528751259</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>9.850149334407346</v>
+        <v>7.905751425730877</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>22.37983480186792</v>
+        <v>23.46848058976654</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>26.21213046102634</v>
+        <v>31.78111585131064</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>6.629721861670141</v>
+        <v>-1.554504585204732</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>20.98507205894107</v>
+        <v>18.01875399742134</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>24.72418195683822</v>
+        <v>29.66556194436394</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>10.99514243869955</v>
+        <v>1.742128316562436</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.82007344235996</v>
+        <v>36.42118875996855</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>7.308178905775847</v>
+        <v>1.938324500330374</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>19.69354157266659</v>
+        <v>9.125618779509786</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.45168223221295</v>
+        <v>19.30926444972682</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4.65683637494269</v>
+        <v>-3.59864736828532</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>18.97212678208972</v>
+        <v>18.43207528880024</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.5871891572188</v>
+        <v>25.87469521420244</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>8.854504697482215</v>
+        <v>-0.4320139305010215</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>24.5902892054668</v>
+        <v>31.61288235369904</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.76198005980187</v>
+        <v>39.69488148669723</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.3843190865141</v>
+        <v>28.888397625031</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.82445685284562</v>
+        <v>31.53126218984924</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>32.93602764969304</v>
+        <v>40.40763465257474</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>16.01120838397402</v>
+        <v>4.799738280683108</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.20787718012348</v>
+        <v>23.15836126373822</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>31.41012972520269</v>
+        <v>36.93837353176244</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>9.850010443706431</v>
+        <v>3.314570606129799</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.37969856571395</v>
+        <v>18.41289743863297</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>26.21199534600556</v>
+        <v>29.31536140709751</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>6.629573148863701</v>
+        <v>-2.661521511650555</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.98492668242753</v>
+        <v>14.48491717414945</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>24.72403738950041</v>
+        <v>28.2397294122892</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.9949954379678</v>
+        <v>-2.465957275640072</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.81993031769863</v>
+        <v>29.15882398896901</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>31.09966934045273</v>
+        <v>26.38427131405823</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.75721329105188</v>
+        <v>12.23834448964033</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.33370151441983</v>
+        <v>27.03662925845874</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.4793636587651</v>
+        <v>31.43496800574264</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>18.39000871783627</v>
+        <v>3.980779490726952</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.83101048998911</v>
+        <v>15.37831478744383</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>34.0484758671837</v>
+        <v>23.6864284226339</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>18.20924291705509</v>
+        <v>11.95373218080071</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.92650371125469</v>
+        <v>21.86014242670505</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.83199020007974</v>
+        <v>31.95671378187036</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>15.72551629108719</v>
+        <v>-3.824729523932852</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>30.35516281962705</v>
+        <v>6.538488732499367</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>34.09122807927275</v>
+        <v>13.01279078237398</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>20.09762362447845</v>
+        <v>-0.8675575182025952</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.13625665389867</v>
+        <v>22.02960961224253</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>40.49373537168542</v>
+        <v>36.6270145219292</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>38.46786545236256</v>
+        <v>24.29560992837177</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>43.05976777570363</v>
+        <v>39.03992642676159</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>45.21267834945327</v>
+        <v>45.75184351150495</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>27.87018153268798</v>
+        <v>3.871941238618099</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>40.44308823535498</v>
+        <v>22.06898635323618</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>43.68760007139711</v>
+        <v>34.26389283349159</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.09998864605256</v>
+        <v>50.93269270777541</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.7575353175579</v>
+        <v>43.53373073773881</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>33.33402470106517</v>
+        <v>53.96825856064743</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>35.47968766919104</v>
+        <v>57.82678610896946</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>18.39032301743325</v>
+        <v>17.91967430797414</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>30.83133297171025</v>
+        <v>51.19131109916484</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>34.04879872556875</v>
+        <v>56.62210662144998</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>18.20954687097161</v>
+        <v>22.95285003562686</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>30.92681586213545</v>
+        <v>39.21299137202389</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.83230303503534</v>
+        <v>45.42823369586493</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>15.72583142195022</v>
+        <v>5.559539433782682</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>30.35548744255899</v>
+        <v>35.74796281468515</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>34.09155372202133</v>
+        <v>41.37320266526644</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>20.0979422373779</v>
+        <v>10.96302758420303</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>36.13658508422127</v>
+        <v>56.2018564727149</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>40.49406470430006</v>
+        <v>66.47206570611053</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>38.4681977488052</v>
+        <v>68.28556622922977</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>43.06010123795313</v>
+        <v>76.76800813311871</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>45.21301259201654</v>
+        <v>81.78771553869507</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.87050593058041</v>
+        <v>27.48666351104334</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>40.4434208942068</v>
+        <v>70.13520207194043</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>43.68793308562003</v>
+        <v>76.2218613740672</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>31.10008662140626</v>
+        <v>52.31421207533462</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.75763525476492</v>
+        <v>38.09591981450831</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>33.33412358581263</v>
+        <v>46.73441531646797</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>35.47978607479742</v>
+        <v>56.21298443762149</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.39042348334335</v>
+        <v>8.270666803283497</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>30.83143231562099</v>
+        <v>44.44608586264847</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.04889703255996</v>
+        <v>52.09234297431926</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>18.20964338556934</v>
+        <v>16.56532189401529</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.92691109062572</v>
+        <v>34.28406907763983</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.83239711108575</v>
+        <v>43.20662418397641</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>15.72593224976701</v>
+        <v>3.09250065418491</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>30.35558673379335</v>
+        <v>32.00577177995905</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>34.09165199383072</v>
+        <v>40.95350591728036</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>20.09804310673433</v>
+        <v>9.314399946262292</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>36.13668415692811</v>
+        <v>54.56648010621411</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>40.49416250554395</v>
+        <v>69.02789205704539</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>38.46829745860849</v>
+        <v>67.00321391615205</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>43.06019989709806</v>
+        <v>73.7104174397586</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>45.21311074500791</v>
+        <v>83.85670835997979</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.87060617840334</v>
+        <v>18.61846565798115</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>40.44352002507338</v>
+        <v>66.10140786428397</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>43.68803114780915</v>
+        <v>74.53857576417866</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.09994476384796</v>
+        <v>47.15787331580731</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.75749185510329</v>
+        <v>22.93474519406099</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>33.33398243098236</v>
+        <v>32.43519759515238</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>35.47964531701016</v>
+        <v>45.249419790418</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>18.39027846310582</v>
+        <v>2.396276932248419</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.83128960510795</v>
+        <v>36.82152121751151</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>34.04875541800538</v>
+        <v>48.8244191048064</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>18.20950188975155</v>
+        <v>12.83016801985637</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.92677226088078</v>
+        <v>30.89799962747944</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.83225949053912</v>
+        <v>43.24490908464376</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>15.72578124351394</v>
+        <v>2.840401011699164</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.35543909971334</v>
+        <v>28.83652953658899</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.09150521764854</v>
+        <v>41.33890257041569</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>20.0978937478999</v>
+        <v>5.179433106646606</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>36.13653868979731</v>
+        <v>48.0096333871457</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>40.49401840124935</v>
+        <v>66.26029437565677</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>38.46815182034069</v>
+        <v>53.74262998072064</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>43.06005652456766</v>
+        <v>62.80892499213005</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>45.21296778697656</v>
+        <v>77.3638939898924</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>27.87045896816916</v>
+        <v>12.3806637382206</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>40.44337514019867</v>
+        <v>57.29832556717611</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>43.68788738221992</v>
+        <v>72.46465786787002</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.263919688359273</v>
+        <v>9.168484638109142</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.60265853983212</v>
+        <v>16.45090909972684</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.35295349644179</v>
+        <v>22.67268007604546</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.649099371567251</v>
+        <v>-0.6057255059148972</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>19.89261066441939</v>
+        <v>10.78495655406159</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>23.50709527642954</v>
+        <v>12.54975944527298</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>9.816122425152361</v>
+        <v>4.269720579807405</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.48316376425364</v>
+        <v>24.01430730864653</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.6463820334301</v>
+        <v>27.47067069850727</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.29401526311021</v>
+        <v>17.32724494893339</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>31.71972686008969</v>
+        <v>24.84222198429789</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>33.8227937328016</v>
+        <v>26.67360479802111</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>16.9205366069118</v>
+        <v>6.680724101327634</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.10440483388209</v>
+        <v>12.32059016610328</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>32.29244692589082</v>
+        <v>21.39264847107933</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>10.6994471907172</v>
+        <v>8.34352408775667</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.17897996924473</v>
+        <v>21.0824680365962</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.00434252977468</v>
+        <v>27.26684723355354</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>7.523228035094075</v>
+        <v>-0.8639430317213836</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>21.80362848537317</v>
+        <v>4.638282896196309</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.54281704903431</v>
+        <v>10.55445472044011</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>11.85595947754328</v>
+        <v>-0.1542521734495423</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.60879938133757</v>
+        <v>16.8016763866362</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>8.264213715281516</v>
+        <v>12.07413498676781</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>20.6029606023136</v>
+        <v>24.29664528536788</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>24.35325620854976</v>
+        <v>26.51111096476854</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>5.64940442378485</v>
+        <v>-1.05279303197991</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>19.89292503235008</v>
+        <v>25.37500696081145</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.50741064420992</v>
+        <v>26.58809903416506</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>9.816430760344691</v>
+        <v>3.566908945838215</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.4834817251014</v>
+        <v>40.66286431645313</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.64670086851875</v>
+        <v>41.33796945575367</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>27.294337009263</v>
+        <v>42.72198358338535</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.72004974074106</v>
+        <v>48.50687857411706</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.82311741121801</v>
+        <v>48.58219292353525</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>16.92085049273329</v>
+        <v>13.59123724175021</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.10472686035221</v>
+        <v>39.20313516222198</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>32.29276928151358</v>
+        <v>43.73238573197967</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>10.69974053690765</v>
+        <v>13.36288955897493</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>23.17928133721574</v>
+        <v>31.86186367591589</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>27.00464463589812</v>
+        <v>35.39886219884938</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>7.523532241653998</v>
+        <v>1.947257239369328</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.80394196499296</v>
+        <v>24.42366296911482</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>25.54313160995615</v>
+        <v>31.56610693946312</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>11.85626707858959</v>
+        <v>4.762883710374133</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>27.60911659016814</v>
+        <v>42.02901792787316</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.264310456263045</v>
+        <v>5.663749978834467</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>20.60305612523675</v>
+        <v>18.48910076712514</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.35335062492817</v>
+        <v>23.57239085732585</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>5.649505491424938</v>
+        <v>-2.718907443736263</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>19.89302463035002</v>
+        <v>21.52205013699893</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.50750926591746</v>
+        <v>26.11411555918372</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>9.816531871177384</v>
+        <v>2.613734910899758</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.48358109022235</v>
+        <v>38.32846446973975</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.64679902389462</v>
+        <v>43.53834101069919</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.2944371709106</v>
+        <v>42.09097952996746</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>31.72014888891843</v>
+        <v>46.05977947576566</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>33.82321608679122</v>
+        <v>50.54584833659519</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.92095113480809</v>
+        <v>4.742849532331668</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.10482646425924</v>
+        <v>32.42388950437903</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>32.29286783686249</v>
+        <v>38.94928336050766</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.6998364641046</v>
+        <v>6.510226978088106</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>23.17937599039435</v>
+        <v>25.44021376830072</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.00473819712091</v>
+        <v>32.37183087364659</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>7.523632614533025</v>
+        <v>-1.14686498871486</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.80404082677671</v>
+        <v>18.58469955566517</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.54322949423202</v>
+        <v>30.20029966299442</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>11.85636748072262</v>
+        <v>2.202887405199682</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>27.60921520448814</v>
+        <v>37.98754626193813</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>8.26417052743091</v>
+        <v>2.509377377986375</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.6029187301928</v>
+        <v>14.05762580924853</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>24.35321434670113</v>
+        <v>22.65812395793683</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.649355993468797</v>
+        <v>-2.587971416125974</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>19.89287838232599</v>
+        <v>19.73813672711078</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.50736379384985</v>
+        <v>27.29233042594417</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>9.816384045273191</v>
+        <v>0.4562718551835374</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.48343703612989</v>
+        <v>34.07945413168537</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.64665621887901</v>
+        <v>42.21365575829288</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.29429263711227</v>
+        <v>32.64256346071426</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>31.72000652674764</v>
+        <v>35.67984173940466</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>33.82307410722444</v>
+        <v>44.63400476926609</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>16.92080511772119</v>
+        <v>2.005515500621023</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.10468261679526</v>
+        <v>26.67561477091986</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>32.29272508335336</v>
+        <v>39.12324816472248</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>10.69969840756058</v>
+        <v>1.922866520364103</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>23.17924058148171</v>
+        <v>20.07380979431418</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.00460390680583</v>
+        <v>29.76756508896006</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>7.523484769559433</v>
+        <v>-2.617405950788445</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.80389630163383</v>
+        <v>14.47805276103785</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.54308577413113</v>
+        <v>28.44117763164017</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>11.85622133643249</v>
+        <v>-2.275151195510396</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.60907292213006</v>
+        <v>30.19994843576428</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.88118715054095</v>
+        <v>27.82831351085543</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.56355161457111</v>
+        <v>15.16760776618546</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>34.12334646690854</v>
+        <v>30.10684308784034</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>36.26050425637939</v>
+        <v>33.675229883731</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.1970227831081</v>
+        <v>1.053968635487799</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>31.62092769770751</v>
+        <v>17.12666896501424</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>34.82480227194522</v>
+        <v>25.33345526651147</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>18.98167875466384</v>
+        <v>9.228597477173714</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.64830923430934</v>
+        <v>22.92234751696521</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>35.54697175380557</v>
+        <v>31.95867185893869</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>16.53661139741483</v>
+        <v>-5.135104234761705</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.09093736774043</v>
+        <v>5.797739219146571</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.82728021548581</v>
+        <v>12.50548198592583</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>20.87548746733752</v>
+        <v>-2.686997216081402</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>36.84117823932782</v>
+        <v>21.55632358281554</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>41.19075847801555</v>
+        <v>36.62105656092937</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>39.18683514058085</v>
+        <v>25.23549399039053</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>43.76290421611905</v>
+        <v>40.36986225180107</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.9080690736434</v>
+        <v>47.3826184733336</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.59328310887111</v>
+        <v>-1.093267605533093</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>41.14757973255188</v>
+        <v>21.92925817135839</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>44.37898803259681</v>
+        <v>34.3345643344257</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>31.88150533073525</v>
+        <v>52.3701456863729</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.56387249405482</v>
+        <v>46.43889244162674</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>34.12366850078389</v>
+        <v>56.83273440626991</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.26082710855269</v>
+        <v>59.67525109964738</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>19.19733595874781</v>
+        <v>14.28083503211449</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>31.62124904281843</v>
+        <v>52.67256955271444</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>34.82512399113106</v>
+        <v>57.78582514024274</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>18.98198160271411</v>
+        <v>20.0435638080999</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.64862025375091</v>
+        <v>40.34394364279581</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.54728345471424</v>
+        <v>45.32353847408695</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>16.53692541008143</v>
+        <v>4.273438880475034</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.09126083591672</v>
+        <v>35.2290526373077</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.82760470628315</v>
+        <v>40.77583683945179</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>20.87580493941843</v>
+        <v>9.14689206174706</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>36.84150549340502</v>
+        <v>55.86437831852309</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>41.19108663111136</v>
+        <v>66.32364480273117</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>39.18716623448829</v>
+        <v>69.08471872959606</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>43.76323646973673</v>
+        <v>77.79218248623908</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>45.90840210191713</v>
+        <v>82.89853836668161</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.59360632843651</v>
+        <v>21.6599322653548</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>41.14791119927882</v>
+        <v>69.60634573433342</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>44.37931985218704</v>
+        <v>75.67020887591934</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>31.88160274473913</v>
+        <v>53.68704399002934</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.56397185159644</v>
+        <v>40.98321315648355</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>34.12376680919174</v>
+        <v>49.58170958582608</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>36.26092493852116</v>
+        <v>58.06694966003329</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.19743585250116</v>
+        <v>4.754770651582028</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>31.62134781492176</v>
+        <v>45.90723311337644</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>34.82522173124269</v>
+        <v>53.13212411579133</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>18.98207756817563</v>
+        <v>13.40339203021379</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.64871494100492</v>
+        <v>35.02765226339586</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>35.54737699147157</v>
+        <v>42.7760243498957</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>16.53702568106005</v>
+        <v>1.461310777929164</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.09135958214422</v>
+        <v>31.03815089297672</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.82770243582159</v>
+        <v>39.9820632265398</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>20.87590525413439</v>
+        <v>7.265020587888223</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>36.84160402364416</v>
+        <v>53.82206906513964</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>41.19118389123796</v>
+        <v>68.49453267371831</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>39.18726538588577</v>
+        <v>67.43651017607985</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>43.7633345732856</v>
+        <v>74.37692767533846</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>45.90849969978218</v>
+        <v>84.63623716676244</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.59370602475872</v>
+        <v>12.57985074657172</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>41.14800977889411</v>
+        <v>65.2160972098167</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>44.37941736791776</v>
+        <v>73.53769857658042</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>31.88146172550148</v>
+        <v>48.24285343368002</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.56382930406281</v>
+        <v>25.42264237710652</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.12362650074241</v>
+        <v>35.21260522718277</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>36.26078502624256</v>
+        <v>47.15366418985742</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>19.19729166047599</v>
+        <v>-0.5858432717729656</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>31.62120594143209</v>
+        <v>38.38701155962443</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>34.82508095037085</v>
+        <v>50.06283543154414</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>18.98193691564562</v>
+        <v>9.515220559138733</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.64857694930578</v>
+        <v>31.15699937911052</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.54724020536834</v>
+        <v>42.51104006002118</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>16.53687555161635</v>
+        <v>0.6918018959309293</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>31.09121281031157</v>
+        <v>27.10401211705838</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.82755651627232</v>
+        <v>39.86151180422105</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>20.8757567601737</v>
+        <v>2.70079336683964</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>36.84145940843851</v>
+        <v>46.55504383228388</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>41.1910406336507</v>
+        <v>65.26693503144679</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>39.18712060825469</v>
+        <v>53.58626886523636</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.76319205627969</v>
+        <v>63.19461690846058</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>45.90835759703177</v>
+        <v>78.01199471817995</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.59355965177414</v>
+        <v>6.732524871051773</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>41.1478657403877</v>
+        <v>56.31745172170651</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>44.37927444514635</v>
+        <v>71.48951483229405</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>13.23357435652218</v>
+        <v>9.48459798478607</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.82264875404017</v>
+        <v>18.93749107824457</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.6768076945879</v>
+        <v>25.71269465214193</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>10.65307583383431</v>
+        <v>0.4670356224574803</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.17473284796694</v>
+        <v>16.81073553951445</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.89772045651281</v>
+        <v>17.55935473051526</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>14.92090775354315</v>
+        <v>4.80356155098972</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.90895849811479</v>
+        <v>30.85567475860513</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>35.18279422202082</v>
+        <v>33.18473119726384</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>32.82145414976937</v>
+        <v>22.7784827326685</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>37.33502961763724</v>
+        <v>30.45603092719873</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>39.49016592418258</v>
+        <v>30.9956180282211</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>22.21214836947421</v>
+        <v>7.941858713841761</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>34.64566632837192</v>
+        <v>15.64310787113289</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>37.9164655518795</v>
+        <v>24.67265934027728</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>15.76817510669621</v>
+        <v>8.710365762769904</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.50043800598335</v>
+        <v>23.63776497395205</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>32.42936087068895</v>
+        <v>29.10931973423886</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>12.61729089254741</v>
+        <v>-0.7203385689906767</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.17566548304041</v>
+        <v>9.255889166467121</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>31.02396066800346</v>
+        <v>12.94901792028273</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>17.05395443997052</v>
+        <v>-0.8310015860275755</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>33.12852519337375</v>
+        <v>22.29474583777725</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>13.23387677344154</v>
+        <v>14.53208511936842</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.82295938018166</v>
+        <v>29.26368621035059</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.67711898918484</v>
+        <v>31.70304819208136</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.65338952515238</v>
+        <v>2.007485110447284</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.17505604292296</v>
+        <v>34.22099464269366</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.89804468527594</v>
+        <v>34.20296114461724</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>14.92122482451395</v>
+        <v>6.093262134324284</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>30.9092854030346</v>
+        <v>50.48060228651475</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>35.18312202456507</v>
+        <v>49.69280300068579</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.82178493270607</v>
+        <v>51.56189109958274</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.33536155833254</v>
+        <v>57.31717023082221</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>39.4904986789321</v>
+        <v>55.91001878342713</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>22.21247112672897</v>
+        <v>17.28730178798507</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.64599739822173</v>
+        <v>45.85803024596965</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.9167969628897</v>
+        <v>50.08709433418986</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.76847682815415</v>
+        <v>14.82237539181768</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.50074792297315</v>
+        <v>35.83715591591159</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>32.42967154483671</v>
+        <v>38.35887898196967</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>12.61760372231638</v>
+        <v>3.058069751904902</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>27.17598777290574</v>
+        <v>30.87227450888677</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.0242840732275</v>
+        <v>35.59766872661499</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.0542707632316</v>
+        <v>5.116050861152139</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>33.12885133274079</v>
+        <v>49.60113923501226</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>13.23397464545996</v>
+        <v>8.74473951965755</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.82305601361297</v>
+        <v>24.23448022853029</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.67721448699285</v>
+        <v>29.60584704273706</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>10.65349179479961</v>
+        <v>1.303895543873416</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.17515681627633</v>
+        <v>31.36005674220764</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.89814445688858</v>
+        <v>34.8095493219735</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>14.92132714105953</v>
+        <v>6.122551824078165</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.90938594284066</v>
+        <v>49.24467594867776</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.18322132359104</v>
+        <v>53.07234840919552</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>32.82188627114088</v>
+        <v>52.14020641487668</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.33546186514054</v>
+        <v>55.96993550269043</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>39.4905984995959</v>
+        <v>59.10276117766569</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>22.21257296319575</v>
+        <v>9.174569350231373</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>34.64609817797387</v>
+        <v>39.97121264880685</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>37.91689666728702</v>
+        <v>46.29222733931542</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.7685738499888</v>
+        <v>8.644441544472507</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.50084364940979</v>
+        <v>30.24338977293161</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>32.42976615035582</v>
+        <v>36.23174960135456</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>12.61770526281121</v>
+        <v>0.9287178764246349</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.17608777511035</v>
+        <v>26.0230261430522</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>31.02438307231062</v>
+        <v>35.3330804216866</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>17.05437233662164</v>
+        <v>3.543405724694146</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.12895108691848</v>
+        <v>46.6690923864461</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.23383349474069</v>
+        <v>4.363319389764065</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.82291743890337</v>
+        <v>18.54153204383503</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.67707706827368</v>
+        <v>27.63905744705139</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>10.65334092369272</v>
+        <v>0.3737714141178472</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.17500925332666</v>
+        <v>28.3190504571</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.89799770235888</v>
+        <v>34.9997921683293</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>14.92117796168098</v>
+        <v>2.761647045802654</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.90924060300756</v>
+        <v>43.58880459326407</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>35.18307727356983</v>
+        <v>50.54060250074685</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>32.82174047832473</v>
+        <v>41.00607798307164</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>37.33531828674396</v>
+        <v>43.93452763240754</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>39.49045531537769</v>
+        <v>51.81643667245627</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>22.21242564227807</v>
+        <v>5.031011154797206</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>34.64595307039841</v>
+        <v>32.69246657451726</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>37.91675268250049</v>
+        <v>45.16904802758126</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>15.76843464753772</v>
+        <v>2.881469834623068</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.50070713812868</v>
+        <v>23.71197887064302</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>32.42963079724053</v>
+        <v>32.65863539695631</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>12.61755611576884</v>
+        <v>-1.563884884140542</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>27.17594200647728</v>
+        <v>20.70717125771916</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.02423814192503</v>
+        <v>32.63224912217709</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>17.05422491064305</v>
+        <v>-2.118291258498481</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.12880759094871</v>
+        <v>37.48701210111972</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>37.51195458387235</v>
+        <v>31.13402158816391</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>35.18746361985778</v>
+        <v>19.7139288533785</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>39.83788153544965</v>
+        <v>34.64344206297086</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>42.02750752418358</v>
+        <v>36.42382357611761</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.5855294555996</v>
+        <v>2.010897085139369</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>37.26315383269007</v>
+        <v>20.75076484445956</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>40.54748368975093</v>
+        <v>27.54947113938719</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>23.88322849603905</v>
+        <v>7.911690562466909</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>36.80065795111114</v>
+        <v>23.40191296056512</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>40.80685354474084</v>
+        <v>32.60977867933537</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>21.47422216270003</v>
+        <v>-6.262908132156262</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.30558797510673</v>
+        <v>8.577685893397366</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>40.15312501664332</v>
+        <v>14.08098508889942</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.91168004614826</v>
+        <v>-4.993769814557361</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>42.19743357241106</v>
+        <v>24.80707121428811</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>46.66188980034373</v>
+        <v>38.68852252451774</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>44.65268949134965</v>
+        <v>28.17405404027679</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>49.31870278295342</v>
+        <v>43.58132841041871</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>51.51711009463122</v>
+        <v>49.2275010160642</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.82372356557475</v>
+        <v>-2.420295472291791</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>46.63064340963643</v>
+        <v>23.34780044727919</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>49.94486201458741</v>
+        <v>35.13457202766285</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>37.51228171831573</v>
+        <v>57.45322396791841</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>35.18779351913916</v>
+        <v>53.40812326312406</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>39.83821261228844</v>
+        <v>63.47797835841465</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>42.02783943581539</v>
+        <v>64.36286808725959</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>24.58585148897797</v>
+        <v>16.77224855049332</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>37.26348420736264</v>
+        <v>58.74782439835401</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>40.54781445047232</v>
+        <v>62.21192635764448</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>23.8835397648387</v>
+        <v>19.52501264492265</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.8009775643123</v>
+        <v>41.98667881747202</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>40.80717385994313</v>
+        <v>46.80268113523324</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>21.47454484415242</v>
+        <v>3.855530013150378</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.30592029866089</v>
+        <v>39.68444170907453</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.15345839815079</v>
+        <v>43.78464756420707</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.91200628592954</v>
+        <v>7.61020844613757</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.19776980196589</v>
+        <v>61.01531944492431</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>46.66222695409232</v>
+        <v>69.88046294832108</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>44.65302965286739</v>
+        <v>74.36964317773467</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>49.31904412722049</v>
+        <v>82.98466773771904</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>51.5174522300395</v>
+        <v>86.51463483966504</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.82405568932993</v>
+        <v>21.69055936208819</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>46.63098395178599</v>
+        <v>73.41528106165384</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>49.94520292285027</v>
+        <v>78.5333457624624</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>37.51238024113086</v>
+        <v>59.9743876954905</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.18789401694076</v>
+        <v>49.02940571599976</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>39.8383120421326</v>
+        <v>57.20647199620812</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.02793837338272</v>
+        <v>63.90369390331478</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>24.58595254169649</v>
+        <v>8.008691974195592</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>37.263584118179</v>
+        <v>52.92509958374442</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>40.54791330315906</v>
+        <v>58.58769964051738</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>23.88363689899694</v>
+        <v>13.39766279759753</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.80107339941569</v>
+        <v>37.35529767581318</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>40.80726851481952</v>
+        <v>44.99453972800465</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>21.4746463543854</v>
+        <v>1.836821345494265</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.30602025750291</v>
+        <v>36.340626014367</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>40.15355731440381</v>
+        <v>43.92570018760589</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.9121078450606</v>
+        <v>6.560458695630707</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>42.19786954585967</v>
+        <v>59.9557259404007</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>46.66232539589731</v>
+        <v>73.09741580252762</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>44.65313001673542</v>
+        <v>73.75726804716331</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>49.31914342450787</v>
+        <v>80.4972647540406</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>51.51755100748927</v>
+        <v>89.33158447280275</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>33.82415661616596</v>
+        <v>13.22639681767306</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>46.63108374211657</v>
+        <v>69.86901389425014</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>49.94530162273924</v>
+        <v>77.34717541605627</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>37.51223804964785</v>
+        <v>53.33707317269131</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>35.18775028711563</v>
+        <v>31.68251873901944</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>39.83817059608992</v>
+        <v>41.1788677510798</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>42.02779733506402</v>
+        <v>51.58913222482193</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.58580711942307</v>
+        <v>1.260064770991484</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.26344106079419</v>
+        <v>43.95590152417737</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>40.54777136643391</v>
+        <v>54.25586726991069</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>23.88349494191965</v>
+        <v>8.78557428757626</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>36.8009341473557</v>
+        <v>32.78339460232574</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>40.80713050895017</v>
+        <v>44.24883856171488</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>21.47449477235481</v>
+        <v>0.4938863014683719</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.3058720921889</v>
+        <v>31.62434371202881</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>40.15341003479111</v>
+        <v>43.32611850503185</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.91195791491995</v>
+        <v>1.24890420187814</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.19772356316498</v>
+        <v>51.73696030211367</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>46.66218081305037</v>
+        <v>69.17252650594767</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>44.65298390282156</v>
+        <v>58.62380555249079</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>49.31899961579813</v>
+        <v>68.18933194039587</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>51.51740762481015</v>
+        <v>81.88437842687196</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>33.82400886079643</v>
+        <v>6.401283494383144</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>46.63093836782161</v>
+        <v>59.88797340058461</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>49.94515739235696</v>
+        <v>74.47472915707135</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>17.3594342537947</v>
+        <v>13.49925642658119</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.68424475119755</v>
+        <v>18.11683413719653</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.4873792428763</v>
+        <v>25.25142904900586</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>14.82495937725936</v>
+        <v>5.821489483174339</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.04944989784921</v>
+        <v>20.11094414622517</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>32.72309631145115</v>
+        <v>20.46733934486719</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.05705318452439</v>
+        <v>8.448874680012501</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.7269169315634</v>
+        <v>30.92500395974802</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>38.94050086192306</v>
+        <v>33.11896098506578</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.58336240746316</v>
+        <v>21.23507874807184</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>41.00391144650923</v>
+        <v>28.32245221708613</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>43.13390403924654</v>
+        <v>29.02461370543296</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>26.19623644560242</v>
+        <v>15.55845278421641</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>38.34829814157453</v>
+        <v>15.72360246819597</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>41.57928259977592</v>
+        <v>25.8296121452392</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>19.80446145758243</v>
+        <v>11.49735196985609</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>32.27440058010417</v>
+        <v>22.09110041240101</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.15114329537541</v>
+        <v>28.4807411743872</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>16.7021695273519</v>
+        <v>3.545016735473872</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.96678763919986</v>
+        <v>11.13945674534731</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>34.76417222170616</v>
+        <v>15.0014701282081</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>21.09961862984586</v>
+        <v>0.6312197360661074</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.85858906104557</v>
+        <v>20.26332172209624</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>17.35973364021364</v>
+        <v>17.11845270832493</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.68455218979742</v>
+        <v>26.65017000617983</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>33.4876873508325</v>
+        <v>29.69991060721217</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>14.82526983014612</v>
+        <v>5.802920018530394</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.04976966969653</v>
+        <v>35.33042250972679</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>32.72341711282898</v>
+        <v>35.37596666339346</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>19.0573669910626</v>
+        <v>8.175050573431982</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>34.7272403914024</v>
+        <v>48.40627476533781</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.94082521604494</v>
+        <v>47.95179653111644</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.58368969529374</v>
+        <v>48.09729234450899</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>41.00423987771424</v>
+        <v>53.4895015985907</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>43.13423327387088</v>
+        <v>52.60695641951822</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>26.19655585611978</v>
+        <v>24.22442515606404</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>38.34862569625785</v>
+        <v>44.30685432027563</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>41.57961049904073</v>
+        <v>49.94391605670558</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>19.80476014132271</v>
+        <v>16.77881502900141</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>32.27470730371742</v>
+        <v>33.08874182251589</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.15145077552334</v>
+        <v>36.77046617109003</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>16.70247911370597</v>
+        <v>6.363299913589493</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>30.96710650293038</v>
+        <v>31.14019743348539</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.76449219553108</v>
+        <v>36.49499577129829</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>21.09993168151284</v>
+        <v>5.611014526794271</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.85891174940653</v>
+        <v>45.97694698050541</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>17.35982929601143</v>
+        <v>11.42498708324619</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.68464663751185</v>
+        <v>21.84485359614192</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.48778068164294</v>
+        <v>27.69075565199245</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>14.82536979217808</v>
+        <v>5.103379484534152</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.04986816945661</v>
+        <v>32.58895046984504</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.72351462676527</v>
+        <v>35.96731231291069</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>19.0574669985686</v>
+        <v>8.104377173314397</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>34.72733866168542</v>
+        <v>47.25932581480695</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.94092226716447</v>
+        <v>51.34028056534789</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>36.58378876581458</v>
+        <v>48.56754184746985</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>41.00433794147816</v>
+        <v>52.060958888053</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>43.13433085687613</v>
+        <v>55.64147303110889</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.19665540787473</v>
+        <v>16.14452071817679</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>38.34872422309726</v>
+        <v>38.541472305877</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.57970796518069</v>
+        <v>46.30973419174064</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>19.80485497049768</v>
+        <v>10.54798174377334</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>32.2748008678119</v>
+        <v>27.55397201642408</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.15154323725798</v>
+        <v>34.57228656504856</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>16.70257837075484</v>
+        <v>4.111860861830515</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.96720425546285</v>
+        <v>26.27956045774497</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.76458896089716</v>
+        <v>36.08714567660676</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>21.10003097010595</v>
+        <v>3.827488863943564</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.85900925785806</v>
+        <v>43.00753277012138</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>17.35969190139852</v>
+        <v>7.646677530347525</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.68451174170176</v>
+        <v>17.11789008967231</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>33.48764692785618</v>
+        <v>26.41782539747971</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>14.82522286113235</v>
+        <v>5.016257665672789</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.04972445919975</v>
+        <v>30.83126342770161</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.72337171860242</v>
+        <v>36.95801621713387</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>19.05732173470735</v>
+        <v>5.600581102563559</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.7271971365178</v>
+        <v>42.91463582539803</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>38.94078201594542</v>
+        <v>49.69197942120801</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.58364679653157</v>
+        <v>38.53925772828254</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>41.00419813170932</v>
+        <v>40.8656236672363</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.13419143873734</v>
+        <v>48.86561082058791</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>26.19651196327223</v>
+        <v>12.07042776919349</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.34858291450162</v>
+        <v>31.94959460294121</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>41.57956776098386</v>
+        <v>45.65985586955956</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>19.80471947354581</v>
+        <v>5.940784486534632</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.27466798535452</v>
+        <v>22.52745497397465</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.1514114992905</v>
+        <v>32.24774321280783</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>16.70243311307675</v>
+        <v>3.034776770709534</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.96706229025185</v>
+        <v>22.82159183094763</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.76444782688348</v>
+        <v>34.79189644668941</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>21.09988740786415</v>
+        <v>-0.3972880424167826</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.85886952555687</v>
+        <v>35.74446451311949</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>41.17991510972568</v>
+        <v>29.58243660008748</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>38.85647119474951</v>
+        <v>16.06150527786799</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>43.41425314128657</v>
+        <v>30.55739614554521</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>45.57887242835091</v>
+        <v>33.77786174019673</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.4749187383625</v>
+        <v>6.198574211329124</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>40.87156069705633</v>
+        <v>18.40890005760728</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>44.11520311122383</v>
+        <v>25.92998628828853</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.79085928239405</v>
+        <v>12.21988487308656</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>40.44181888740908</v>
+        <v>23.02497939046544</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>44.39338440703448</v>
+        <v>32.23461415787825</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.42342088549178</v>
+        <v>-0.05734934465569808</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>39.95484702797353</v>
+        <v>12.01186252408241</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>43.75098363965229</v>
+        <v>17.09286083747362</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.81976574655945</v>
+        <v>-1.081778352660386</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>45.78631497055214</v>
+        <v>25.18214546013736</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>50.18646730320002</v>
+        <v>38.53646663345192</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>48.17600656773422</v>
+        <v>27.0950876783027</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>52.74767412329735</v>
+        <v>41.64701855169285</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>54.91935805640404</v>
+        <v>47.55736068460076</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>37.56923885773494</v>
+        <v>4.73348117530012</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>50.09358899379887</v>
+        <v>23.41671107168492</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>53.36596432851304</v>
+        <v>35.22885509236463</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.1802387883313</v>
+        <v>54.77338038152497</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>38.85679759252724</v>
+        <v>48.37621473210124</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>43.41458070206154</v>
+        <v>58.32391182725832</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>45.57920081279778</v>
+        <v>60.97698383043454</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.47523741694783</v>
+        <v>20.88193701542398</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>40.87188754870427</v>
+        <v>55.32520061204543</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>44.11553035197313</v>
+        <v>59.84200386242805</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.79116737107451</v>
+        <v>23.17477234964702</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>40.44213516224888</v>
+        <v>40.54221054143768</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>44.39370138342883</v>
+        <v>45.63763191417531</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.42374017678154</v>
+        <v>9.220193034401895</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>39.95517577527645</v>
+        <v>41.51789162013399</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>43.75131344007901</v>
+        <v>45.70350991122766</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.82008856644529</v>
+        <v>10.66579285730993</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>45.78664759775863</v>
+        <v>59.83391626483203</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>50.18680085032994</v>
+        <v>68.70993484749368</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>48.17634307428829</v>
+        <v>71.92404380983248</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>52.74801179780764</v>
+        <v>79.99352579370631</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>54.91969651212888</v>
+        <v>84.16575836705343</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>37.56956747547132</v>
+        <v>28.83577717845871</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.0939258603684</v>
+        <v>72.38071502067092</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>53.3663015642063</v>
+        <v>77.9303012380056</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>41.18033508710731</v>
+        <v>57.17635867123358</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>38.85689584742457</v>
+        <v>43.82447256573401</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>43.41467791385401</v>
+        <v>51.89115173619545</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>45.57929753756846</v>
+        <v>60.25454567138758</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.47533621023704</v>
+        <v>12.02637315525761</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.87198523192778</v>
+        <v>49.44919056852809</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.11562699181791</v>
+        <v>56.21834858154174</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>27.79126230942164</v>
+        <v>17.35616516655444</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>40.44222883214212</v>
+        <v>36.3221537247066</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.39379389283093</v>
+        <v>44.11804056271075</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.42383940211099</v>
+        <v>7.448919232902973</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>39.9552734835935</v>
+        <v>38.51687015092933</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>43.7514101224106</v>
+        <v>46.06047151493051</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.82018783953209</v>
+        <v>9.760987385588045</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>45.7867450945412</v>
+        <v>59.07690386340793</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>50.18689706793432</v>
+        <v>72.15576676449382</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>48.17644119523263</v>
+        <v>71.44785041817789</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>52.74810887735519</v>
+        <v>77.64997488245845</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>54.91979307817535</v>
+        <v>87.02604156666223</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>37.5696661429368</v>
+        <v>20.63413073392335</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>50.09402342295948</v>
+        <v>69.09749408796588</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>53.36639805177581</v>
+        <v>77.05356962888871</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>41.18019664334864</v>
+        <v>52.04041679742645</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>38.85675588668884</v>
+        <v>28.26410801181735</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>43.4145401825346</v>
+        <v>37.30454008602226</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>45.57916021175259</v>
+        <v>49.10057433005964</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.47519461048717</v>
+        <v>5.897681015484558</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>40.8718459201714</v>
+        <v>41.6893716906007</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>44.11548878193716</v>
+        <v>52.92278795516203</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.79112408184954</v>
+        <v>13.83096409453436</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.44209323092699</v>
+        <v>33.19776736108876</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>44.39365952324191</v>
+        <v>44.53787144084655</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.4236917291482</v>
+        <v>7.449021926983484</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>39.95512913828944</v>
+        <v>35.64067546378303</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>43.7512666566896</v>
+        <v>46.80290073555714</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.82004179351923</v>
+        <v>5.831562477945376</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>45.78660289470895</v>
+        <v>52.74007002616086</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>50.18675625107362</v>
+        <v>69.66029854778421</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>48.17629886842857</v>
+        <v>58.01297987284222</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>52.74796880015788</v>
+        <v>66.71001888884558</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>54.91965342333012</v>
+        <v>80.60923208233598</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>37.56952222720778</v>
+        <v>14.37027511753261</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>50.09388181087108</v>
+        <v>60.34085636706292</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>53.36625756485508</v>
+        <v>75.15411540556244</v>
       </c>
     </row>
   </sheetData>
